--- a/irányelvek 2024.xlsx
+++ b/irányelvek 2024.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Gabi\Suli\Közgáz\webprog\css\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\webprogramozás\html,css\Beadando\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="110" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15600" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fedőlap" sheetId="2" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Irányelvek!$A$1:$L$42</definedName>
     <definedName name="nem_modosithato2">Irányelvek!$J:$J,Irányelvek!$I:$I,Irányelvek!$H$1,Irányelvek!$G:$G,Irányelvek!$H:$H,Irányelvek!$F:$F,Irányelvek!$C:$C,Irányelvek!$B:$B,Irányelvek!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="85">
   <si>
     <t>Neved:</t>
   </si>
@@ -300,16 +300,19 @@
     <t>Van az oldalon legalább egy Bootstrap komponens!</t>
   </si>
   <si>
-    <t>Murányi Gábor</t>
+    <t>Molnár Krisztina Murányi Gábor</t>
   </si>
   <si>
-    <t>muranyi.gabor@ckik.hu</t>
+    <t>molnar.krisztina@ckik.hu   muranyi.gabor@ckik.hu</t>
+  </si>
+  <si>
+    <t>Mitski</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode=";;;"/>
@@ -872,6 +875,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -883,9 +895,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -910,12 +919,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Ezres" xfId="1" builtinId="3"/>
@@ -995,11 +998,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D14" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1011,7 +1014,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1039,7 +1042,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1307,7 +1310,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1393,7 +1396,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -1441,7 +1444,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1477,7 +1480,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -1525,7 +1528,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1561,7 +1564,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
@@ -1609,7 +1612,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1645,9 +1648,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>146050</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1693,7 +1696,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1729,9 +1732,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1777,7 +1780,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1807,7 +1810,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -1815,7 +1818,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>488950</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1861,7 +1864,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1897,9 +1900,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>393700</xdr:rowOff>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1945,7 +1948,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1981,7 +1984,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -2029,7 +2032,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2065,9 +2068,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2113,7 +2116,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2149,7 +2152,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2197,7 +2200,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2233,7 +2236,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2281,7 +2284,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2317,7 +2320,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -2365,7 +2368,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2401,7 +2404,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>571500</xdr:rowOff>
         </xdr:to>
@@ -2449,7 +2452,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2485,7 +2488,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
@@ -2533,7 +2536,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2569,7 +2572,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -2617,7 +2620,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2653,9 +2656,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2701,7 +2704,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2737,7 +2740,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2785,7 +2788,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2821,9 +2824,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>527050</xdr:rowOff>
+          <xdr:rowOff>523875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2869,7 +2872,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2905,9 +2908,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2953,7 +2956,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2989,7 +2992,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
@@ -3037,7 +3040,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3073,7 +3076,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
@@ -3121,7 +3124,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3157,7 +3160,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
@@ -3205,7 +3208,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3241,7 +3244,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -3289,7 +3292,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3325,7 +3328,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3373,7 +3376,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3409,7 +3412,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -3457,7 +3460,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3493,7 +3496,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -3541,7 +3544,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3577,9 +3580,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3625,7 +3628,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3661,7 +3664,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
@@ -3709,7 +3712,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3745,7 +3748,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
@@ -3793,7 +3796,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3829,7 +3832,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -3877,7 +3880,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3913,9 +3916,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>355600</xdr:rowOff>
+          <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3961,7 +3964,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3997,9 +4000,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>393700</xdr:rowOff>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4045,7 +4048,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4081,7 +4084,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -4129,7 +4132,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4165,7 +4168,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4213,7 +4216,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4249,7 +4252,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -4297,7 +4300,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4333,9 +4336,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4381,7 +4384,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4417,7 +4420,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4465,7 +4468,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4501,7 +4504,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -4549,7 +4552,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4585,9 +4588,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>374650</xdr:rowOff>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4633,7 +4636,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4669,7 +4672,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
@@ -4717,7 +4720,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4753,7 +4756,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4801,7 +4804,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4885,7 +4888,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4969,7 +4972,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5053,7 +5056,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5091,7 +5094,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>146050</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5137,7 +5140,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5175,7 +5178,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5221,7 +5224,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5253,13 +5256,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>685800</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>565150</xdr:rowOff>
+          <xdr:rowOff>561975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5305,7 +5308,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5343,7 +5346,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>393700</xdr:rowOff>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5389,7 +5392,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5473,7 +5476,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5511,7 +5514,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5557,7 +5560,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5641,7 +5644,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5725,7 +5728,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5809,7 +5812,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5893,7 +5896,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5977,7 +5980,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6061,7 +6064,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6099,7 +6102,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6145,7 +6148,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6229,7 +6232,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6267,7 +6270,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>527050</xdr:rowOff>
+          <xdr:rowOff>523875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6313,7 +6316,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6351,7 +6354,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6397,7 +6400,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6481,7 +6484,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6565,7 +6568,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6649,7 +6652,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6733,7 +6736,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6817,7 +6820,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6901,7 +6904,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6985,7 +6988,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7023,7 +7026,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7069,7 +7072,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7153,7 +7156,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7237,7 +7240,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7321,7 +7324,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7405,7 +7408,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7443,7 +7446,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>393700</xdr:rowOff>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7489,7 +7492,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7573,7 +7576,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7657,7 +7660,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7741,7 +7744,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7779,7 +7782,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7825,7 +7828,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7909,7 +7912,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7993,7 +7996,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8077,7 +8080,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8109,13 +8112,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>88900</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>298450</xdr:rowOff>
+          <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8161,7 +8164,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8245,7 +8248,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8563,89 +8566,91 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:R477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.26953125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="39.81640625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="4.1796875" style="27" customWidth="1"/>
-    <col min="6" max="6" width="40.7265625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="27"/>
-    <col min="8" max="8" width="6.1796875" style="27" customWidth="1"/>
-    <col min="9" max="9" width="2.453125" style="27" customWidth="1"/>
-    <col min="10" max="10" width="2.7265625" style="27" customWidth="1"/>
-    <col min="11" max="12" width="9.1796875" style="63"/>
-    <col min="13" max="13" width="15.26953125" style="63" customWidth="1"/>
-    <col min="14" max="18" width="9.1796875" style="63"/>
-    <col min="19" max="16384" width="9.1796875" style="27"/>
+    <col min="1" max="1" width="4.28515625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="27"/>
+    <col min="8" max="8" width="6.140625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="27" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="27" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="63"/>
+    <col min="13" max="13" width="15.28515625" style="63" customWidth="1"/>
+    <col min="14" max="18" width="9.140625" style="63"/>
+    <col min="19" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61"/>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
       <c r="I1" s="61"/>
       <c r="J1" s="61"/>
     </row>
-    <row r="2" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="61"/>
       <c r="B2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="61"/>
       <c r="J2" s="61"/>
     </row>
-    <row r="3" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="61"/>
       <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
       <c r="I3" s="61"/>
       <c r="J3" s="61"/>
     </row>
-    <row r="4" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="61"/>
       <c r="B4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
+      <c r="C4" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="61"/>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -8657,36 +8662,36 @@
       <c r="I5" s="61"/>
       <c r="J5" s="61"/>
     </row>
-    <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
       <c r="I6" s="61"/>
       <c r="J6" s="61"/>
     </row>
-    <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61"/>
-      <c r="B7" s="75" t="str">
+      <c r="B7" s="77" t="str">
         <f>CONCATENATE("Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább ",D12," pontot el kell érni. A tanulói és tanári értékelés tekintetében, maximum 10 darab irányelvben lehet eltérés.")</f>
         <v>Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább 20 pontot el kell érni. A tanulói és tanári értékelés tekintetében, maximum 10 darab irányelvben lehet eltérés.</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
       <c r="I7" s="61"/>
       <c r="J7" s="61"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="61"/>
       <c r="B8" s="61"/>
       <c r="C8" s="61"/>
@@ -8698,7 +8703,7 @@
       <c r="I8" s="61"/>
       <c r="J8" s="61"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="61"/>
       <c r="B9" s="62" t="s">
         <v>39</v>
@@ -8712,91 +8717,91 @@
       <c r="I9" s="61"/>
       <c r="J9" s="61"/>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61"/>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="72"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="60">
         <f>COUNTA(Irányelvek!C:C)-1</f>
         <v>41</v>
       </c>
       <c r="E10" s="61"/>
-      <c r="F10" s="80" t="s">
+      <c r="F10" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
       <c r="I10" s="61"/>
       <c r="J10" s="61"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="61"/>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="60">
         <f>SUM(Irányelvek!G:G)</f>
         <v>70</v>
       </c>
       <c r="E11" s="61"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
       <c r="I11" s="61"/>
       <c r="J11" s="61"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="61"/>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="72"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="60">
         <v>20</v>
       </c>
       <c r="E12" s="61"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="61"/>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="60">
         <v>10</v>
       </c>
       <c r="E13" s="61"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
       <c r="I13" s="61"/>
       <c r="J13" s="61"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="61"/>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="72"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="60">
         <v>40</v>
       </c>
       <c r="E14" s="61"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
       <c r="I14" s="61"/>
       <c r="J14" s="61"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
       <c r="B15" s="62" t="s">
         <v>69</v>
@@ -8810,12 +8815,12 @@
       <c r="I15" s="61"/>
       <c r="J15" s="61"/>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="61"/>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="72"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="60" t="b">
         <f t="array" ref="D16">IF(COUNTIFS(Irányelvek!D2:D42,"=hamis",Irányelvek!F2:F42,"=Igaz")=0,TRUE,FALSE)</f>
         <v>0</v>
@@ -8827,80 +8832,80 @@
       <c r="I16" s="61"/>
       <c r="J16" s="61"/>
     </row>
-    <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="61"/>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="72"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="64">
         <f>SUM(Irányelvek!H2:H42)</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E17" s="61"/>
-      <c r="F17" s="79" t="str">
+      <c r="F17" s="81" t="str">
         <f>VLOOKUP(D20,Ponthatárok!$C$3:$D$7,2,TRUE)</f>
-        <v>Közepes (3)</v>
-      </c>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
+        <v>Jó (4)</v>
+      </c>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
     </row>
-    <row r="18" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="61"/>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="78"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="67">
         <f>VLOOKUP(SUM(Irányelvek!J2:J42),Ponthatárok!G2:H12,2,TRUE)</f>
         <v>0</v>
       </c>
       <c r="E18" s="61"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="61"/>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="77"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="67">
         <v>40</v>
       </c>
       <c r="E19" s="61"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="61"/>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="72"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="64">
         <f>SUM(D17:D19)</f>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E20" s="61"/>
-      <c r="F20" s="68" t="str">
+      <c r="F20" s="71" t="str">
         <f>CONCATENATE("Az önértékelés alapján ",VLOOKUP(D20,Ponthatárok!$C$3:$D$7,2,TRUE), "  érdemjegyet kapnál rá.")</f>
-        <v>Az önértékelés alapján Közepes (3)  érdemjegyet kapnál rá.</v>
-      </c>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
+        <v>Az önértékelés alapján Jó (4)  érdemjegyet kapnál rá.</v>
+      </c>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="61"/>
       <c r="B21" s="66"/>
       <c r="C21" s="66"/>
@@ -8912,465 +8917,468 @@
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
     </row>
-    <row r="22" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="75" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="81" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="83" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="85" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="86" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="87" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="88" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="89" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="90" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="91" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="92" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="93" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="94" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="95" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="96" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="97" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="100" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="101" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="103" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="104" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="105" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="108" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="109" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="110" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="111" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="113" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="114" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="115" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="118" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="119" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="120" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="121" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="122" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="123" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="124" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="125" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="126" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="127" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="128" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="129" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="130" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="131" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="132" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="133" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="134" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="135" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="136" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="137" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="138" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="139" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="140" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="141" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="142" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="143" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="144" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="145" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="146" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="147" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="148" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="149" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="150" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="151" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="152" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="153" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="154" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="155" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="156" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="157" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="158" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="159" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="160" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="161" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="162" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="163" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="164" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="165" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="166" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="167" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="168" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="169" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="170" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="171" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="172" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="173" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="174" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="175" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="176" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="177" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="178" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="179" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="180" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="181" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="182" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="183" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="184" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="185" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="186" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="187" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="188" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="189" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="190" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="191" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="192" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="193" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="194" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="195" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="196" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="197" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="198" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="199" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="200" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="201" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="202" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="203" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="204" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="205" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="206" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="207" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="208" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="209" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="210" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="211" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="212" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="213" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="214" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="215" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="216" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="217" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="218" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="219" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="220" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="221" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="222" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="223" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="224" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="225" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="226" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="227" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="228" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="229" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="230" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="231" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="232" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="233" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="234" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="235" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="236" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="237" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="238" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="239" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="240" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="241" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="242" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="243" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="244" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="245" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="246" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="247" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="248" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="249" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="250" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="251" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="252" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="253" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="254" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="255" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="256" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="257" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="258" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="259" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="260" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="261" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="262" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="263" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="264" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="265" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="266" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="267" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="268" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="269" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="270" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="271" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="272" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="273" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="274" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="275" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="276" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="277" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="278" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="279" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="280" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="281" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="282" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="283" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="284" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="285" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="286" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="287" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="288" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="289" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="290" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="291" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="292" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="293" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="294" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="295" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="296" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="297" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="298" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="299" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="300" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="301" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="302" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="303" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="304" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="305" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="306" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="307" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="308" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="309" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="310" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="311" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="312" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="313" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="314" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="315" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="316" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="317" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="318" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="319" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="320" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="321" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="322" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="323" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="324" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="325" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="326" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="327" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="328" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="329" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="330" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="331" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="332" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="333" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="334" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="335" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="336" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="337" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="338" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="339" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="340" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="341" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="342" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="343" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="344" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="345" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="346" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="347" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="348" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="349" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="350" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="351" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="352" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="353" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="354" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="355" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="356" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="357" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="358" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="359" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="360" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="361" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="362" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="363" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="364" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="365" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="366" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="367" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="368" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="369" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="370" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="371" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="372" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="373" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="374" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="375" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="376" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="377" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="378" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="379" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="380" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="381" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="382" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="383" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="384" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="385" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="386" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="387" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="388" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="389" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="390" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="391" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="392" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="393" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="394" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="395" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="396" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="397" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="398" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="399" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="400" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="401" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="402" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="403" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="404" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="405" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="406" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="407" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="408" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="409" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="410" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="411" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="412" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="413" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="414" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="415" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="416" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="417" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="418" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="419" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="420" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="421" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="422" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="423" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="424" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="425" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="426" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="427" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="428" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="429" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="430" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="431" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="432" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="433" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="434" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="435" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="436" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="437" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="438" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="439" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="440" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="441" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="442" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="443" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="444" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="445" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="446" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="447" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="448" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="449" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="450" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="451" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="452" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="453" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="454" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="455" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="456" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="457" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="458" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="459" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="460" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="461" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="462" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="463" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="464" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="465" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="466" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="467" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="468" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="469" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="470" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="471" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="472" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="473" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="474" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="475" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="476" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="477" s="63" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="353" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="354" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="355" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="356" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="357" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="358" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="359" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="360" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="361" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="362" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="363" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="364" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="365" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="366" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="367" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="368" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="369" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="370" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="371" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="372" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="373" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="374" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="375" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="376" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="377" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="378" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="379" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="380" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="381" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="382" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="383" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="384" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="385" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="386" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="387" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="388" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="389" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="390" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="391" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="392" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="393" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="394" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="395" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="396" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="397" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="398" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="399" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="400" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="401" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="402" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="403" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="404" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="405" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="406" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="407" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="408" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="409" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="410" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="411" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="412" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="413" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="414" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="415" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="416" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="417" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="418" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="419" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="420" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="421" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="422" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="423" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="424" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="425" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="426" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="427" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="428" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="429" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="430" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="431" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="432" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="433" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="434" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="435" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="436" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="437" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="438" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="439" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="440" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="441" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="442" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="443" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="444" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="445" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="446" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="447" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="448" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="449" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="450" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="451" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="452" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="453" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="454" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="455" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="456" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="457" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="458" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="459" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="460" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="461" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="462" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="463" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="464" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="465" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="466" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="467" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="468" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="469" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="470" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="471" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="472" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="473" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="474" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="475" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="476" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="477" s="63" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="9LZvIPXLRP+cD0rFh4sLWSr4eTwGZogP5un2UuZ6v2v/KeCdbNEC5abQbMgkS/WpqlEMLErAQmf6Q1qhxmiXBg==" saltValue="tBY5JKdrf7kyNxTny/I87A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="19">
+    <mergeCell ref="F17:H19"/>
+    <mergeCell ref="F10:H14"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B12:C12"/>
@@ -9387,9 +9395,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F17:H19"/>
-    <mergeCell ref="F10:H14"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D17">
     <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
@@ -9415,28 +9420,28 @@
   <sheetPr codeName="Munka2"/>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" style="63" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="54.1796875" style="59" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" style="41" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="42" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="27"/>
+    <col min="1" max="1" width="3.140625" style="63" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="58" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="42" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="27"/>
     <col min="8" max="8" width="13" style="27" customWidth="1"/>
     <col min="9" max="9" width="16" style="27" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" style="27" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" customWidth="1"/>
-    <col min="12" max="12" width="9.7265625" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="27" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="43"/>
       <c r="B1" s="44" t="s">
         <v>5</v>
@@ -9467,7 +9472,7 @@
       </c>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="45">
         <v>1</v>
       </c>
@@ -9502,7 +9507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="48">
         <v>2</v>
       </c>
@@ -9535,7 +9540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="45">
         <v>3</v>
       </c>
@@ -9571,7 +9576,7 @@
       </c>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="48">
         <v>4</v>
       </c>
@@ -9607,7 +9612,7 @@
       </c>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A6" s="45">
         <v>5</v>
       </c>
@@ -9642,7 +9647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="48">
         <v>6</v>
       </c>
@@ -9677,7 +9682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45">
         <v>7</v>
       </c>
@@ -9712,7 +9717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="48">
         <v>8</v>
       </c>
@@ -9745,7 +9750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="45">
         <v>9</v>
       </c>
@@ -9756,7 +9761,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="31" t="b">
         <v>0</v>
@@ -9765,9 +9770,9 @@
       <c r="G10" s="22">
         <v>1</v>
       </c>
-      <c r="H10" s="19" t="str">
+      <c r="H10" s="19">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I10" s="20" t="str">
         <f t="shared" si="1"/>
@@ -9775,10 +9780,10 @@
       </c>
       <c r="J10" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="48">
         <v>10</v>
       </c>
@@ -9813,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="45">
         <v>11</v>
       </c>
@@ -9848,7 +9853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="48">
         <v>12</v>
       </c>
@@ -9859,7 +9864,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="31" t="b">
         <v>0</v>
@@ -9868,9 +9873,9 @@
       <c r="G13" s="22">
         <v>1</v>
       </c>
-      <c r="H13" s="19" t="str">
+      <c r="H13" s="19">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I13" s="20" t="str">
         <f t="shared" si="1"/>
@@ -9878,10 +9883,10 @@
       </c>
       <c r="J13" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="45">
         <v>13</v>
       </c>
@@ -9892,7 +9897,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="31" t="b">
         <v>0</v>
@@ -9901,9 +9906,9 @@
       <c r="G14" s="22">
         <v>1</v>
       </c>
-      <c r="H14" s="19" t="str">
+      <c r="H14" s="19">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I14" s="20" t="str">
         <f t="shared" si="1"/>
@@ -9911,10 +9916,10 @@
       </c>
       <c r="J14" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="48">
         <v>14</v>
       </c>
@@ -9947,7 +9952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="45">
         <v>15</v>
       </c>
@@ -9980,7 +9985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48">
         <v>16</v>
       </c>
@@ -9991,7 +9996,7 @@
         <v>24</v>
       </c>
       <c r="D17" s="37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="31" t="b">
         <v>0</v>
@@ -10000,9 +10005,9 @@
       <c r="G17" s="22">
         <v>1</v>
       </c>
-      <c r="H17" s="19" t="str">
+      <c r="H17" s="19">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I17" s="20" t="str">
         <f t="shared" si="1"/>
@@ -10010,10 +10015,10 @@
       </c>
       <c r="J17" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="45">
         <v>17</v>
       </c>
@@ -10046,7 +10051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48">
         <v>18</v>
       </c>
@@ -10079,7 +10084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45">
         <v>19</v>
       </c>
@@ -10112,7 +10117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="48">
         <v>20</v>
       </c>
@@ -10145,7 +10150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45">
         <v>21</v>
       </c>
@@ -10178,7 +10183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="48">
         <v>22</v>
       </c>
@@ -10189,7 +10194,7 @@
         <v>52</v>
       </c>
       <c r="D23" s="37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="31" t="b">
         <v>0</v>
@@ -10198,9 +10203,9 @@
       <c r="G23" s="22">
         <v>1</v>
       </c>
-      <c r="H23" s="19" t="str">
+      <c r="H23" s="19">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I23" s="20" t="str">
         <f t="shared" si="1"/>
@@ -10208,10 +10213,10 @@
       </c>
       <c r="J23" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="45">
         <v>23</v>
       </c>
@@ -10244,7 +10249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="48">
         <v>24</v>
       </c>
@@ -10277,7 +10282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="45">
         <v>25</v>
       </c>
@@ -10310,7 +10315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="48">
         <v>26</v>
       </c>
@@ -10343,7 +10348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="45">
         <v>27</v>
       </c>
@@ -10376,7 +10381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="48">
         <v>28</v>
       </c>
@@ -10411,7 +10416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" s="1" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45">
         <v>29</v>
       </c>
@@ -10444,7 +10449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="48">
         <v>30</v>
       </c>
@@ -10477,7 +10482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="45">
         <v>31</v>
       </c>
@@ -10510,7 +10515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="48">
         <v>32</v>
       </c>
@@ -10545,7 +10550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45">
         <v>33</v>
       </c>
@@ -10580,7 +10585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="48">
         <v>34</v>
       </c>
@@ -10613,7 +10618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="45">
         <v>35</v>
       </c>
@@ -10648,7 +10653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="48">
         <v>36</v>
       </c>
@@ -10681,7 +10686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45">
         <v>37</v>
       </c>
@@ -10716,7 +10721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="48">
         <v>38</v>
       </c>
@@ -10751,7 +10756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="45">
         <v>39</v>
       </c>
@@ -10786,7 +10791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="48">
         <v>40</v>
       </c>
@@ -10821,7 +10826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="45">
         <v>41</v>
       </c>
@@ -10893,7 +10898,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>209550</xdr:rowOff>
                   </to>
@@ -10915,7 +10920,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>209550</xdr:rowOff>
                   </to>
@@ -10937,7 +10942,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -10959,9 +10964,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>146050</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10981,9 +10986,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>69850</xdr:rowOff>
+                    <xdr:rowOff>66675</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10997,7 +11002,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -11005,7 +11010,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>488950</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11025,9 +11030,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>393700</xdr:rowOff>
+                    <xdr:rowOff>390525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11047,7 +11052,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>209550</xdr:rowOff>
                   </to>
@@ -11069,9 +11074,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>127000</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11091,7 +11096,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -11113,7 +11118,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -11135,7 +11140,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>209550</xdr:rowOff>
                   </to>
@@ -11157,7 +11162,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>571500</xdr:rowOff>
                   </to>
@@ -11179,7 +11184,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -11201,7 +11206,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>209550</xdr:rowOff>
                   </to>
@@ -11223,9 +11228,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>127000</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11245,7 +11250,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -11267,9 +11272,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>527050</xdr:rowOff>
+                    <xdr:rowOff>523875</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11289,9 +11294,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>127000</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11311,7 +11316,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -11333,7 +11338,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>133350</xdr:rowOff>
                   </to>
@@ -11355,7 +11360,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -11377,7 +11382,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>209550</xdr:rowOff>
                   </to>
@@ -11399,7 +11404,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -11421,7 +11426,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>209550</xdr:rowOff>
                   </to>
@@ -11443,7 +11448,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>209550</xdr:rowOff>
                   </to>
@@ -11465,9 +11470,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>127000</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11487,7 +11492,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -11509,7 +11514,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -11531,7 +11536,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>209550</xdr:rowOff>
                   </to>
@@ -11553,9 +11558,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>355600</xdr:rowOff>
+                    <xdr:rowOff>352425</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11575,9 +11580,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>393700</xdr:rowOff>
+                    <xdr:rowOff>390525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11597,7 +11602,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>33</xdr:row>
                     <xdr:rowOff>209550</xdr:rowOff>
                   </to>
@@ -11619,7 +11624,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -11641,7 +11646,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>209550</xdr:rowOff>
                   </to>
@@ -11663,9 +11668,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>36</xdr:row>
-                    <xdr:rowOff>184150</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11685,7 +11690,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>38</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -11707,7 +11712,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>38</xdr:row>
                     <xdr:rowOff>209550</xdr:rowOff>
                   </to>
@@ -11729,9 +11734,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>374650</xdr:rowOff>
+                    <xdr:rowOff>371475</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11751,7 +11756,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>323850</xdr:rowOff>
                   </to>
@@ -11773,7 +11778,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>107950</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -11863,7 +11868,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>152400</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>146050</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11885,7 +11890,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>152400</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>69850</xdr:rowOff>
+                    <xdr:rowOff>66675</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11901,13 +11906,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>685800</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>565150</xdr:rowOff>
+                    <xdr:rowOff>561975</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11929,7 +11934,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>152400</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>393700</xdr:rowOff>
+                    <xdr:rowOff>390525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11973,7 +11978,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>152400</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>127000</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12127,7 +12132,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>152400</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>127000</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12171,7 +12176,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>152400</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>527050</xdr:rowOff>
+                    <xdr:rowOff>523875</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12193,7 +12198,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>152400</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>127000</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12369,7 +12374,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>152400</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>127000</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12479,7 +12484,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>152400</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>393700</xdr:rowOff>
+                    <xdr:rowOff>390525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12567,7 +12572,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>152400</xdr:colOff>
                     <xdr:row>37</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12649,13 +12654,13 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>88900</xdr:rowOff>
+                    <xdr:rowOff>85725</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>298450</xdr:rowOff>
+                    <xdr:rowOff>295275</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12699,17 +12704,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="12"/>
-    <col min="3" max="3" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
-    <col min="13" max="13" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="13" t="s">
         <v>36</v>
       </c>
@@ -12724,7 +12729,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4">
         <v>120</v>
@@ -12741,7 +12746,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
         <v>0.4</v>
       </c>
@@ -12762,7 +12767,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
         <v>0.55000000000000004</v>
       </c>
@@ -12784,7 +12789,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>0.7</v>
       </c>
@@ -12806,7 +12811,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>0.85</v>
       </c>
@@ -12828,7 +12833,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>1</v>
       </c>
@@ -12850,7 +12855,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D8" s="7"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -12863,7 +12868,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -12879,7 +12884,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -12895,7 +12900,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -12911,7 +12916,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -12926,7 +12931,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -12937,7 +12942,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -12948,7 +12953,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -12959,7 +12964,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -12970,7 +12975,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -12981,7 +12986,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -12992,7 +12997,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -13003,7 +13008,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -13014,7 +13019,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -13025,7 +13030,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -13036,7 +13041,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -13045,14 +13050,14 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
